--- a/GroceryApp/src/test/resources/TestData.xlsx
+++ b/GroceryApp/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="13980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -53,10 +53,16 @@
     <t>New Item Launched</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Ramans</t>
   </si>
   <si>
     <t>Ram@12345</t>
+  </si>
+  <si>
+    <t>staff</t>
   </si>
   <si>
     <t>Category</t>
@@ -1305,32 +1311,38 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="12.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +1359,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -1355,12 +1367,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
